--- a/updated_static_questions.xlsx
+++ b/updated_static_questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18750" windowHeight="6800"/>
+    <workbookView windowWidth="19200" windowHeight="6800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="56">
   <si>
     <t>current_question</t>
   </si>
@@ -101,13 +101,10 @@
     <t>upload</t>
   </si>
   <si>
-    <t>Is it a voice/text chat?</t>
-  </si>
-  <si>
-    <t>Confirm that the response clearly specifies which modalities the system processes.</t>
-  </si>
-  <si>
-    <t>Look for explicit confirmation on supported channels, details on how users provide input (e.g., microphone quality, text interface, attachment, formats etc).</t>
+    <t>What type of chat is this?</t>
+  </si>
+  <si>
+    <t>Text,Image,Audio,Video</t>
   </si>
   <si>
     <t>What problem it aims to solve?</t>
@@ -140,7 +137,9 @@
     <t>Where the system can likely be fair or baised?</t>
   </si>
   <si>
-    <t>Check that the response analyzes potential bias issues across input types.</t>
+    <t>Check if the response mentions any potential bias (e.g., accents, dialects, cultural context, language style) in text or voice input.
+ Accept responses like “I don’t know,” “not sure,” “maybe with accents,” “possibly in language,” or similar natural statements.
+Do not ask follow-up questions if the answer shows uncertainty or lacks detail.</t>
   </si>
   <si>
     <t>Look for details on voice-related biases (accent, dialect) and text-related biases (language style, cultural nuances), image realted biases , age realted rules , gender specific. So if the user says it would not be fair or biased then we are fine</t>
@@ -149,7 +148,9 @@
     <t>How is the system designed to be interpretable (e.g. display of rationale/reason/context used)</t>
   </si>
   <si>
-    <t>Verify that the response explains how decision processes are made transparent to the user.</t>
+    <t>Look for any reference to logs, explanations, decision summaries, or context used.
+ Accept general statements like “I think it explains itself,” “maybe it shows why,” or even “not sure.”
+ No follow-ups needed for vague or uncertain answers.</t>
   </si>
   <si>
     <t>Check for details on how outputs are accompanied by rationale or context (e.g., logs, explanations for voice/text processing decisions).</t>
@@ -158,7 +159,10 @@
     <t>What types of data does your system process?</t>
   </si>
   <si>
-    <t>Confirm that the response lists all data types collected during interactions.</t>
+    <t xml:space="preserve"> Confirm if the answer mentions text, images, voice, metadata (like timestamps or device info), or anything similar.
+ Responses like “just messages,” “text and images I think,” or “I don’t know” are acceptable.
+ Do not push for technical accuracy or completeness.
+</t>
   </si>
   <si>
     <t>Look for details on audio recordings, text transcripts, what metadata, and how each is stored, anonymized, and secured.Undersatdn what rules they have around those to save it securely</t>
@@ -167,7 +171,9 @@
     <t>Do you have guardrails to filter harmful language ? What are your implicit/explicit requirements on guardrails ?</t>
   </si>
   <si>
-    <t>Check that the response explains methods to detect and filter inappropriate content in both input channels</t>
+    <t>Check for any mention of filters, moderation, content checks, or blocklists in either text or voice.
+Accept responses like “yes,” “I think it blocks stuff,” “not sure,” or similar informal inputs.
+ No follow-up required if unsure or non-technical.</t>
   </si>
   <si>
     <t>Look for details on threshold criteria for triggering filters, and how flagged content is handled in real time. Have they used any specific guardrails or rules . If not we are are okay not to trigger follow ups.</t>
@@ -176,7 +182,10 @@
     <t xml:space="preserve">Is there a mechanism for manual intervention when booking decisions are ambiguous? </t>
   </si>
   <si>
-    <t>Verify that the response provides a process for unclear or conflicting input.</t>
+    <t xml:space="preserve">If the person says something like "I'm not sure," "I don't know," or "I'm not aware," that’s totally acceptable—just note it as a valid response.
+Clear explanation of process (prompts, fallback, escalation) Any natural uncertainty (e.g., “I think it does something like ask again, but I’m not sure”) Direct admissions of not knowing (“I don’t know” or “I’m not aware”)
+If user says 'I dont know' or 'not sure'  strictly  skip the follow up question .
+</t>
   </si>
   <si>
     <t>Ensure it describes how  agents can review, flag, or clarify ambiguous inputs. If no such mechanism is there we are okay to not trigger follow ups.</t>
@@ -185,7 +194,8 @@
     <t>Do you have a process to continuously monitor performance and address unexpected outcomes?</t>
   </si>
   <si>
-    <t>Check that the response describes a feedback loop and monitoring system covering all the mentioned input channels.</t>
+    <t>Check that the response describes a feedback loop and monitoring system covering all the mentioned input channels.Accept responses like “yes,” “I think it blocks stuff,” “not sure,” or similar informal inputs.
+ No follow-up required if unsure or non-technical.If follow up is there accept te answer  like " i dont know"  “not sure,” or similar informal inputs.</t>
   </si>
   <si>
     <t>Look for details on feedback loop, what do they further do with collection of feedbacks or monitoring the quality of the system</t>
@@ -194,7 +204,8 @@
     <t>Is there any specific age/gender guidelines to be considered for your application under test?</t>
   </si>
   <si>
-    <t>Confirm that the response details any age or gender-based requirements and their influence on input style.</t>
+    <t>Confirm that the response details any age or gender-based requirements and their influence on input style.Accept responses like “yes,” “I think it blocks stuff,” “not sure,” or similar informal inputs.
+ No follow-up required if unsure or non-technical.</t>
   </si>
   <si>
     <t>Ensure it includes how such guidelines affect interface design (e.g., voice tone, language style) and any compliance measures (e.g., COPPA).If the user says no such specifics then we are okay</t>
@@ -210,7 +221,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +237,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -725,137 +742,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -868,17 +885,30 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1227,8 +1257,8 @@
   <sheetPr/>
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="64" zoomScaleNormal="100" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7:U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1375,37 +1405,33 @@
       <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
-    <row r="7" ht="56" spans="1:18">
+    <row r="7" spans="1:18">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4">
         <v>6</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="9" t="s">
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="R7" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="I7" s="10"/>
+      <c r="R7" s="10"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -1423,15 +1449,15 @@
         <v>17</v>
       </c>
       <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" t="s">
         <v>28</v>
-      </c>
-      <c r="R8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -1449,15 +1475,15 @@
         <v>17</v>
       </c>
       <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" t="s">
         <v>31</v>
-      </c>
-      <c r="R9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -1475,15 +1501,15 @@
         <v>17</v>
       </c>
       <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" t="s">
         <v>34</v>
       </c>
-      <c r="R10" t="s">
+    </row>
+    <row r="11" ht="87" spans="1:18">
+      <c r="A11" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -1500,16 +1526,16 @@
       <c r="F11" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" t="s">
         <v>37</v>
       </c>
-      <c r="R11" t="s">
+    </row>
+    <row r="12" s="1" customFormat="1" ht="70" spans="1:18">
+      <c r="A12" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:18">
-      <c r="A12" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -1526,16 +1552,16 @@
       <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R12" s="1" t="s">
+    </row>
+    <row r="13" ht="101.5" spans="1:18">
+      <c r="A13" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
-        <v>42</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -1552,16 +1578,16 @@
       <c r="F13" t="s">
         <v>17</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="R13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="R13" s="8" t="s">
+    </row>
+    <row r="14" ht="72.5" spans="1:18">
+      <c r="A14" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
-        <v>45</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -1578,16 +1604,16 @@
       <c r="F14" t="s">
         <v>17</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="R14" t="s">
         <v>46</v>
       </c>
-      <c r="R14" t="s">
+    </row>
+    <row r="15" ht="159.5" spans="1:18">
+      <c r="A15" s="8" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>19</v>
@@ -1604,16 +1630,16 @@
       <c r="F15" t="s">
         <v>17</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R15" t="s">
         <v>49</v>
       </c>
-      <c r="R15" t="s">
+    </row>
+    <row r="16" ht="98" spans="1:18">
+      <c r="A16" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" t="s">
-        <v>51</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -1630,16 +1656,16 @@
       <c r="F16" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R16" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="R16" s="10" t="s">
+    </row>
+    <row r="17" ht="70" spans="1:18">
+      <c r="A17" s="5" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -1656,11 +1682,11 @@
       <c r="F17" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="R17" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="R17" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/updated_static_questions.xlsx
+++ b/updated_static_questions.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800"/>
+    <workbookView windowWidth="28125" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
     <t>general</t>
   </si>
   <si>
-    <t>Verify that the response offers a clear, concise overview of what the application does.</t>
+    <t>Verify that the response provides a clear detail what the application does or about its functionality. The response is valid if it addresses the question’s intent and aligns with the application’s purpose, even if it includes moderate detail, as long as it remains focused and avoids ambiguity.</t>
   </si>
   <si>
     <t>Check for key features, where is the GEN AI exactly leveraged ,what kind of inputs does the chatbot accepts and what output does it generate supported input modalities (voice, text, image)</t>
@@ -101,7 +101,7 @@
     <t>upload</t>
   </si>
   <si>
-    <t>What type of chat is this?</t>
+    <t>What is the input type to your application?</t>
   </si>
   <si>
     <t>Text,Image,Audio,Video</t>
@@ -131,7 +131,7 @@
     <t>Verify that the response outlines potential risks linked input &amp; output.</t>
   </si>
   <si>
-    <t>Check for discussion on technical risks (misrecognition of topic or speech or text), privacy issues (data handling of audio/text/image), and user frustration or business impact if outputs are ambiguous.</t>
+    <t>Check for discussion on technical risks , privacy issues , and user frustration or business impact if outputs are ambiguous.</t>
   </si>
   <si>
     <t>Where the system can likely be fair or baised?</t>
@@ -205,7 +205,7 @@
   </si>
   <si>
     <t>Confirm that the response details any age or gender-based requirements and their influence on input style.Accept responses like “yes,” “I think it blocks stuff,” “not sure,” or similar informal inputs.
- No follow-up required if unsure or non-technical.</t>
+ Accept responses anything like  "I am not sure","I don't know".</t>
   </si>
   <si>
     <t>Ensure it includes how such guidelines affect interface design (e.g., voice tone, language style) and any compliance measures (e.g., COPPA).If the user says no such specifics then we are okay</t>
@@ -872,7 +872,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -885,9 +885,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1257,8 +1254,8 @@
   <sheetPr/>
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="64" zoomScaleNormal="100" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7:U9"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="63" zoomScaleNormal="100" showWhiteSpace="0" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1405,29 +1402,29 @@
       <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="4">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="R7" s="10"/>
+      <c r="I7" s="9"/>
+      <c r="R7" s="9"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
@@ -1526,7 +1523,7 @@
       <c r="F11" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>36</v>
       </c>
       <c r="R11" t="s">
@@ -1552,7 +1549,7 @@
       <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="11" t="s">
         <v>39</v>
       </c>
       <c r="R12" s="1" t="s">
@@ -1578,10 +1575,10 @@
       <c r="F13" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="R13" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1604,7 +1601,7 @@
       <c r="F14" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="12" t="s">
         <v>45</v>
       </c>
       <c r="R14" t="s">
@@ -1612,7 +1609,7 @@
       </c>
     </row>
     <row r="15" ht="159.5" spans="1:18">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1630,7 +1627,7 @@
       <c r="F15" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="12" t="s">
         <v>48</v>
       </c>
       <c r="R15" t="s">
@@ -1656,10 +1653,10 @@
       <c r="F16" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="R16" s="15" t="s">
+      <c r="R16" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1682,10 +1679,10 @@
       <c r="F17" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="R17" s="15" t="s">
+      <c r="R17" s="14" t="s">
         <v>55</v>
       </c>
     </row>
